--- a/ISA/vaa_out/vaa_report_2025-11.xlsx
+++ b/ISA/vaa_out/vaa_report_2025-11.xlsx
@@ -494,9 +494,9 @@
     <col width="11" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
-    <col width="22" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="21" customWidth="1" min="11" max="11"/>
+    <col width="22" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
@@ -646,34 +646,34 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.0391</v>
+        <v>0.0282</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.1043</v>
+        <v>0.1147</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.2302</v>
+        <v>0.2364</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.239</v>
+        <v>0.1896</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="N3" s="5" t="n">
+        <v>998670.7867420167</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>971267.091044873</v>
       </c>
-      <c r="O3" s="5" t="n">
-        <v>934750.4729871824</v>
-      </c>
       <c r="P3" s="5" t="n">
-        <v>879545.6707533449</v>
+        <v>895871.2029987797</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>789526.2937164307</v>
+        <v>807705.9901195318</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>783910.0344517082</v>
+        <v>839532.9274133295</v>
       </c>
     </row>
     <row r="4">
@@ -718,34 +718,34 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.027</v>
+        <v>0.0379</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.1049</v>
+        <v>0.0992</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.1151</v>
+        <v>0.1474</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.2321</v>
+        <v>0.2692</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="N4" s="5" t="n">
+        <v>139650.357833432</v>
+      </c>
+      <c r="O4" s="5" t="n">
         <v>134555.6486034729</v>
       </c>
-      <c r="O4" s="5" t="n">
-        <v>131012.1216334077</v>
-      </c>
       <c r="P4" s="5" t="n">
-        <v>121784.9513834808</v>
+        <v>127051.0847354857</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>120662.8125</v>
+        <v>121706.1117897704</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>109210.3128278442</v>
+        <v>110028.9065567628</v>
       </c>
     </row>
     <row r="5">
@@ -790,34 +790,34 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.051</v>
+        <v>0.0331</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.1654</v>
+        <v>0.1748</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.264</v>
+        <v>0.3041</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.2851</v>
+        <v>0.3497</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="N5" s="5" t="n">
+        <v>81351.56946642604</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>78748.30599363707</v>
       </c>
-      <c r="O5" s="5" t="n">
-        <v>74928.21344474796</v>
-      </c>
       <c r="P5" s="5" t="n">
-        <v>67571.72798516694</v>
+        <v>69247.56154348142</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>62303.2976102829</v>
+        <v>62381.0653831833</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>61277.43516431423</v>
+        <v>60274.15777369682</v>
       </c>
     </row>
     <row r="6">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.0178</v>
+        <v>0.0253</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.0433</v>
+        <v>0.0626</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.0155</v>
+        <v>0.0919</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.0552</v>
+        <v>0.062</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0.47</v>
+        <v>0.8</v>
       </c>
       <c r="N6" s="5" t="n">
+        <v>146787.4931013063</v>
+      </c>
+      <c r="O6" s="5" t="n">
         <v>143170.9740674011</v>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>140665.7899475098</v>
-      </c>
       <c r="P6" s="5" t="n">
-        <v>137230.7209849823</v>
+        <v>138134.0217289673</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>140979.7202205658</v>
+        <v>134437.2222619476</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>135678.8515895326</v>
+        <v>138215.3605917357</v>
       </c>
     </row>
     <row r="7">
@@ -934,34 +934,34 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.0127</v>
+        <v>0.0249</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.0432</v>
+        <v>0.0645</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.0303</v>
+        <v>0.0992</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.0542</v>
+        <v>0.0539</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.44</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N7" s="5" t="n">
+        <v>162336.7564255279</v>
+      </c>
+      <c r="O7" s="5" t="n">
         <v>158393.7515528016</v>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>156409.1349342652</v>
-      </c>
       <c r="P7" s="5" t="n">
-        <v>151827.6580148377</v>
+        <v>152494.6324854735</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>153736.5297794342</v>
+        <v>147689.0847831694</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>150250.3355011018</v>
+        <v>154029.3246499635</v>
       </c>
     </row>
     <row r="8">
@@ -1006,34 +1006,34 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.019</v>
+        <v>0.0261</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.0444</v>
+        <v>0.0597</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.0083</v>
+        <v>0.0919</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.0584</v>
+        <v>0.067</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>0.48</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="5" t="n">
+        <v>141511.5760509521</v>
+      </c>
+      <c r="O8" s="5" t="n">
         <v>137916.3367187195</v>
       </c>
-      <c r="O8" s="5" t="n">
-        <v>135347.8500703583</v>
-      </c>
       <c r="P8" s="5" t="n">
-        <v>132054.3020500336</v>
+        <v>133536.9648328247</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>136779.662065506</v>
+        <v>129599.6765141571</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>130302.4266954744</v>
+        <v>132628.2350495607</v>
       </c>
     </row>
     <row r="9">
@@ -1078,34 +1078,34 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.0151</v>
+        <v>0.027</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.0291</v>
+        <v>0.05309999999999999</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>-0.0015</v>
+        <v>0.07150000000000001</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.0407</v>
+        <v>0.0581</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0.34</v>
+        <v>0.74</v>
       </c>
       <c r="N9" s="5" t="n">
+        <v>121360.53814812</v>
+      </c>
+      <c r="O9" s="5" t="n">
         <v>118165.1860010438</v>
       </c>
-      <c r="O9" s="5" t="n">
-        <v>116405.3247407684</v>
-      </c>
       <c r="P9" s="5" t="n">
-        <v>114827.4013346527</v>
+        <v>115245.9450260131</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>118342.1039104462</v>
+        <v>113264.3914160309</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>113539.0216177795</v>
+        <v>114696.4595943298</v>
       </c>
     </row>
   </sheetData>
@@ -1135,9 +1135,9 @@
     <col width="60" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>0.0159</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="10"/>
@@ -1255,19 +1255,19 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
+        <v>998670.7867420167</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <v>971267.091044873</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>934750.4729871824</v>
-      </c>
       <c r="D12" s="5" t="n">
-        <v>879545.6707533449</v>
+        <v>895871.2029987797</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>789526.2937164307</v>
+        <v>807705.9901195318</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>783910.0344517082</v>
+        <v>839532.9274133295</v>
       </c>
     </row>
     <row r="13">
@@ -1278,16 +1278,16 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="10" t="n">
-        <v>0.0391</v>
+        <v>0.0282</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>0.1043</v>
+        <v>0.1147</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>0.2302</v>
+        <v>0.2364</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>0.239</v>
+        <v>0.1896</v>
       </c>
     </row>
     <row r="14">
@@ -1318,16 +1318,16 @@
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" s="11" t="n">
-        <v>0.4692</v>
+        <v>0.3384</v>
       </c>
       <c r="D15" s="11" t="n">
-        <v>0.4172</v>
+        <v>0.4588</v>
       </c>
       <c r="E15" s="11" t="n">
-        <v>0.4604</v>
+        <v>0.4728</v>
       </c>
       <c r="F15" s="11" t="n">
-        <v>0.239</v>
+        <v>0.1896</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="11" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="17"/>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="B21" s="8" t="n">
-        <v>0.0121</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="22"/>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="B24" s="5" t="n">
+        <v>139650.357833432</v>
+      </c>
+      <c r="C24" s="5" t="n">
         <v>134555.6486034729</v>
       </c>
-      <c r="C24" s="5" t="n">
-        <v>131012.1216334077</v>
-      </c>
       <c r="D24" s="5" t="n">
-        <v>121784.9513834808</v>
+        <v>127051.0847354857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>120662.8125</v>
+        <v>121706.1117897704</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>109210.3128278442</v>
+        <v>110028.9065567628</v>
       </c>
     </row>
     <row r="25">
@@ -1450,16 +1450,16 @@
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="10" t="n">
-        <v>0.027</v>
+        <v>0.0379</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>0.1049</v>
+        <v>0.0992</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>0.1151</v>
+        <v>0.1474</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>0.2321</v>
+        <v>0.2692</v>
       </c>
     </row>
     <row r="26">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="11" t="n">
-        <v>0.3240000000000001</v>
+        <v>0.4548</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>0.4196</v>
+        <v>0.3968</v>
       </c>
       <c r="E27" s="11" t="n">
-        <v>0.2302</v>
+        <v>0.2948</v>
       </c>
       <c r="F27" s="11" t="n">
-        <v>0.2321</v>
+        <v>0.2692</v>
       </c>
     </row>
     <row r="28">
@@ -1509,7 +1509,7 @@
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr"/>
       <c r="F28" s="11" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="29"/>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B33" s="8" t="n">
-        <v>0.0209</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="34"/>
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="B36" s="5" t="n">
+        <v>81351.56946642604</v>
+      </c>
+      <c r="C36" s="5" t="n">
         <v>78748.30599363707</v>
       </c>
-      <c r="C36" s="5" t="n">
-        <v>74928.21344474796</v>
-      </c>
       <c r="D36" s="5" t="n">
-        <v>67571.72798516694</v>
+        <v>69247.56154348142</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>62303.2976102829</v>
+        <v>62381.0653831833</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>61277.43516431423</v>
+        <v>60274.15777369682</v>
       </c>
     </row>
     <row r="37">
@@ -1622,16 +1622,16 @@
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="10" t="n">
-        <v>0.051</v>
+        <v>0.0331</v>
       </c>
       <c r="D37" s="10" t="n">
-        <v>0.1654</v>
+        <v>0.1748</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>0.264</v>
+        <v>0.3041</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>0.2851</v>
+        <v>0.3497</v>
       </c>
     </row>
     <row r="38">
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="11" t="n">
-        <v>0.612</v>
+        <v>0.3972</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>0.6616</v>
+        <v>0.6992</v>
       </c>
       <c r="E39" s="11" t="n">
-        <v>0.528</v>
+        <v>0.6082</v>
       </c>
       <c r="F39" s="11" t="n">
-        <v>0.2851</v>
+        <v>0.3497</v>
       </c>
     </row>
     <row r="40">
@@ -1681,7 +1681,7 @@
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr"/>
       <c r="F40" s="11" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="41"/>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="B45" s="8" t="n">
-        <v>0.004699999999999999</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="46"/>
@@ -1771,19 +1771,19 @@
         </is>
       </c>
       <c r="B48" s="5" t="n">
+        <v>146787.4931013063</v>
+      </c>
+      <c r="C48" s="5" t="n">
         <v>143170.9740674011</v>
       </c>
-      <c r="C48" s="5" t="n">
-        <v>140665.7899475098</v>
-      </c>
       <c r="D48" s="5" t="n">
-        <v>137230.7209849823</v>
+        <v>138134.0217289673</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>140979.7202205658</v>
+        <v>134437.2222619476</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>135678.8515895326</v>
+        <v>138215.3605917357</v>
       </c>
     </row>
     <row r="49">
@@ -1794,16 +1794,16 @@
       </c>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="10" t="n">
-        <v>0.0178</v>
+        <v>0.0253</v>
       </c>
       <c r="D49" s="10" t="n">
-        <v>0.0433</v>
+        <v>0.0626</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>0.0155</v>
+        <v>0.0919</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>0.0552</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="50">
@@ -1834,16 +1834,16 @@
       </c>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="11" t="n">
-        <v>0.2136</v>
+        <v>0.3036</v>
       </c>
       <c r="D51" s="11" t="n">
-        <v>0.1732</v>
+        <v>0.2504</v>
       </c>
       <c r="E51" s="11" t="n">
-        <v>0.031</v>
+        <v>0.1838</v>
       </c>
       <c r="F51" s="11" t="n">
-        <v>0.0552</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="52">
@@ -1853,7 +1853,7 @@
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr"/>
       <c r="F52" s="11" t="n">
-        <v>0.47</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53"/>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B58" s="8" t="n">
-        <v>0.0044</v>
+        <v>0.008100000000000001</v>
       </c>
     </row>
     <row r="59"/>
@@ -1950,19 +1950,19 @@
         </is>
       </c>
       <c r="B61" s="5" t="n">
+        <v>162336.7564255279</v>
+      </c>
+      <c r="C61" s="5" t="n">
         <v>158393.7515528016</v>
       </c>
-      <c r="C61" s="5" t="n">
-        <v>156409.1349342652</v>
-      </c>
       <c r="D61" s="5" t="n">
-        <v>151827.6580148377</v>
+        <v>152494.6324854735</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>153736.5297794342</v>
+        <v>147689.0847831694</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>150250.3355011018</v>
+        <v>154029.3246499635</v>
       </c>
     </row>
     <row r="62">
@@ -1973,16 +1973,16 @@
       </c>
       <c r="B62" s="3" t="n"/>
       <c r="C62" s="10" t="n">
-        <v>0.0127</v>
+        <v>0.0249</v>
       </c>
       <c r="D62" s="10" t="n">
-        <v>0.0432</v>
+        <v>0.0645</v>
       </c>
       <c r="E62" s="10" t="n">
-        <v>0.0303</v>
+        <v>0.0992</v>
       </c>
       <c r="F62" s="10" t="n">
-        <v>0.0542</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="63">
@@ -2013,16 +2013,16 @@
       </c>
       <c r="B64" s="3" t="n"/>
       <c r="C64" s="11" t="n">
-        <v>0.1524</v>
+        <v>0.2988</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>0.1728</v>
+        <v>0.258</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>0.06059999999999999</v>
+        <v>0.1984</v>
       </c>
       <c r="F64" s="11" t="n">
-        <v>0.0542</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="65">
@@ -2032,7 +2032,7 @@
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr"/>
       <c r="F65" s="11" t="n">
-        <v>0.44</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="66"/>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="B70" s="8" t="n">
-        <v>0.0048</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="71"/>
@@ -2122,19 +2122,19 @@
         </is>
       </c>
       <c r="B73" s="5" t="n">
+        <v>141511.5760509521</v>
+      </c>
+      <c r="C73" s="5" t="n">
         <v>137916.3367187195</v>
       </c>
-      <c r="C73" s="5" t="n">
-        <v>135347.8500703583</v>
-      </c>
       <c r="D73" s="5" t="n">
-        <v>132054.3020500336</v>
+        <v>133536.9648328247</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>136779.662065506</v>
+        <v>129599.6765141571</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>130302.4266954744</v>
+        <v>132628.2350495607</v>
       </c>
     </row>
     <row r="74">
@@ -2145,16 +2145,16 @@
       </c>
       <c r="B74" s="3" t="n"/>
       <c r="C74" s="10" t="n">
-        <v>0.019</v>
+        <v>0.0261</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>0.0444</v>
+        <v>0.0597</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>0.0083</v>
+        <v>0.0919</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>0.0584</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="75">
@@ -2185,16 +2185,16 @@
       </c>
       <c r="B76" s="3" t="n"/>
       <c r="C76" s="11" t="n">
-        <v>0.228</v>
+        <v>0.3132</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>0.1776</v>
+        <v>0.2388</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>0.0166</v>
+        <v>0.1838</v>
       </c>
       <c r="F76" s="11" t="n">
-        <v>0.0584</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="77">
@@ -2204,7 +2204,7 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr"/>
       <c r="F77" s="11" t="n">
-        <v>0.48</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78"/>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>0.0034</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="83"/>
@@ -2294,19 +2294,19 @@
         </is>
       </c>
       <c r="B85" s="5" t="n">
+        <v>121360.53814812</v>
+      </c>
+      <c r="C85" s="5" t="n">
         <v>118165.1860010438</v>
       </c>
-      <c r="C85" s="5" t="n">
-        <v>116405.3247407684</v>
-      </c>
       <c r="D85" s="5" t="n">
-        <v>114827.4013346527</v>
+        <v>115245.9450260131</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>118342.1039104462</v>
+        <v>113264.3914160309</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>113539.0216177795</v>
+        <v>114696.4595943298</v>
       </c>
     </row>
     <row r="86">
@@ -2317,16 +2317,16 @@
       </c>
       <c r="B86" s="3" t="n"/>
       <c r="C86" s="10" t="n">
-        <v>0.0151</v>
+        <v>0.027</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>0.0291</v>
+        <v>0.05309999999999999</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>-0.0015</v>
+        <v>0.07150000000000001</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>0.0407</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="87">
@@ -2357,16 +2357,16 @@
       </c>
       <c r="B88" s="3" t="n"/>
       <c r="C88" s="11" t="n">
-        <v>0.1812</v>
+        <v>0.3240000000000001</v>
       </c>
       <c r="D88" s="11" t="n">
-        <v>0.1164</v>
+        <v>0.2124</v>
       </c>
       <c r="E88" s="11" t="n">
-        <v>-0.003</v>
+        <v>0.143</v>
       </c>
       <c r="F88" s="11" t="n">
-        <v>0.0407</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="89">
@@ -2376,7 +2376,7 @@
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr"/>
       <c r="F89" s="11" t="n">
-        <v>0.34</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>

--- a/ISA/vaa_out/vaa_report_2025-11.xlsx
+++ b/ISA/vaa_out/vaa_report_2025-11.xlsx
@@ -493,8 +493,8 @@
     <col width="28" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="21" customWidth="1" min="10" max="10"/>
     <col width="21" customWidth="1" min="11" max="11"/>
     <col width="22" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
@@ -646,22 +646,22 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.0282</v>
+        <v>-0.0001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.1147</v>
+        <v>0.08410000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.2364</v>
+        <v>0.2024</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.1896</v>
+        <v>0.1568</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>1.46</v>
+        <v>0.9</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>998670.7867420167</v>
+        <v>971199.4089713395</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>971267.091044873</v>
@@ -718,22 +718,22 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.0379</v>
+        <v>0.0147</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.0992</v>
+        <v>0.0747</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.1474</v>
+        <v>0.1219</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.2692</v>
+        <v>0.2409</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>139650.357833432</v>
+        <v>136536.4592249757</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>134555.6486034729</v>
@@ -790,22 +790,22 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.0331</v>
+        <v>-0.0063</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.1748</v>
+        <v>0.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.3041</v>
+        <v>0.2544</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.3497</v>
+        <v>0.2983</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>81351.56946642604</v>
+        <v>78252.40860339347</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>78748.30599363707</v>
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.0253</v>
+        <v>0.0338</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.0626</v>
+        <v>0.07150000000000001</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.0919</v>
+        <v>0.101</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.062</v>
+        <v>0.0709</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>146787.4931013063</v>
+        <v>148016.4281925783</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>143170.9740674011</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.0249</v>
+        <v>0.032</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.0645</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.0992</v>
+        <v>0.1068</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.0539</v>
+        <v>0.0612</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>162336.7564255279</v>
+        <v>163460.5888592284</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>158393.7515528016</v>
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.0261</v>
+        <v>0.0385</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.0597</v>
+        <v>0.0726</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.0919</v>
+        <v>0.1051</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.067</v>
+        <v>0.0799</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>141511.5760509521</v>
+        <v>143226.9680180177</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>137916.3367187195</v>
@@ -1078,22 +1078,22 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.027</v>
+        <v>0.0355</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.05309999999999999</v>
+        <v>0.0617</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.07150000000000001</v>
+        <v>0.0803</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.0581</v>
+        <v>0.0668</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>121360.53814812</v>
+        <v>122359.6530606933</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>118165.1860010438</v>
@@ -1134,8 +1134,8 @@
   <cols>
     <col width="60" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
     <col width="21" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>0.0146</v>
+        <v>0.009000000000000001</v>
       </c>
     </row>
     <row r="10"/>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>998670.7867420167</v>
+        <v>971199.4089713395</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>971267.091044873</v>
@@ -1278,16 +1278,16 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="10" t="n">
-        <v>0.0282</v>
+        <v>-0.0001</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>0.1147</v>
+        <v>0.08410000000000001</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>0.2364</v>
+        <v>0.2024</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>0.1896</v>
+        <v>0.1568</v>
       </c>
     </row>
     <row r="14">
@@ -1318,16 +1318,16 @@
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" s="11" t="n">
-        <v>0.3384</v>
+        <v>-0.0012</v>
       </c>
       <c r="D15" s="11" t="n">
-        <v>0.4588</v>
+        <v>0.3364</v>
       </c>
       <c r="E15" s="11" t="n">
-        <v>0.4728</v>
+        <v>0.4048</v>
       </c>
       <c r="F15" s="11" t="n">
-        <v>0.1896</v>
+        <v>0.1568</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="11" t="n">
-        <v>1.46</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17"/>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="B21" s="8" t="n">
-        <v>0.0142</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="22"/>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>139650.357833432</v>
+        <v>136536.4592249757</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>134555.6486034729</v>
@@ -1450,16 +1450,16 @@
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="10" t="n">
-        <v>0.0379</v>
+        <v>0.0147</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>0.0992</v>
+        <v>0.0747</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>0.1474</v>
+        <v>0.1219</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>0.2692</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="26">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="11" t="n">
-        <v>0.4548</v>
+        <v>0.1764</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>0.3968</v>
+        <v>0.2988</v>
       </c>
       <c r="E27" s="11" t="n">
-        <v>0.2948</v>
+        <v>0.2438</v>
       </c>
       <c r="F27" s="11" t="n">
-        <v>0.2692</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="28">
@@ -1509,7 +1509,7 @@
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr"/>
       <c r="F28" s="11" t="n">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="29"/>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B33" s="8" t="n">
-        <v>0.0205</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="34"/>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="B36" s="5" t="n">
-        <v>81351.56946642604</v>
+        <v>78252.40860339347</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>78748.30599363707</v>
@@ -1622,16 +1622,16 @@
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="10" t="n">
-        <v>0.0331</v>
+        <v>-0.0063</v>
       </c>
       <c r="D37" s="10" t="n">
-        <v>0.1748</v>
+        <v>0.13</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>0.3041</v>
+        <v>0.2544</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>0.3497</v>
+        <v>0.2983</v>
       </c>
     </row>
     <row r="38">
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="11" t="n">
-        <v>0.3972</v>
+        <v>-0.0756</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>0.6992</v>
+        <v>0.52</v>
       </c>
       <c r="E39" s="11" t="n">
-        <v>0.6082</v>
+        <v>0.5088</v>
       </c>
       <c r="F39" s="11" t="n">
-        <v>0.3497</v>
+        <v>0.2983</v>
       </c>
     </row>
     <row r="40">
@@ -1681,7 +1681,7 @@
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr"/>
       <c r="F40" s="11" t="n">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="41"/>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="B45" s="8" t="n">
-        <v>0.008</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="46"/>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="B48" s="5" t="n">
-        <v>146787.4931013063</v>
+        <v>148016.4281925783</v>
       </c>
       <c r="C48" s="5" t="n">
         <v>143170.9740674011</v>
@@ -1794,16 +1794,16 @@
       </c>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="10" t="n">
-        <v>0.0253</v>
+        <v>0.0338</v>
       </c>
       <c r="D49" s="10" t="n">
-        <v>0.0626</v>
+        <v>0.07150000000000001</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>0.0919</v>
+        <v>0.101</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>0.062</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="50">
@@ -1834,16 +1834,16 @@
       </c>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="11" t="n">
-        <v>0.3036</v>
+        <v>0.4056</v>
       </c>
       <c r="D51" s="11" t="n">
-        <v>0.2504</v>
+        <v>0.286</v>
       </c>
       <c r="E51" s="11" t="n">
-        <v>0.1838</v>
+        <v>0.202</v>
       </c>
       <c r="F51" s="11" t="n">
-        <v>0.062</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="52">
@@ -1853,7 +1853,7 @@
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr"/>
       <c r="F52" s="11" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="53"/>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B58" s="8" t="n">
-        <v>0.008100000000000001</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="59"/>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="B61" s="5" t="n">
-        <v>162336.7564255279</v>
+        <v>163460.5888592284</v>
       </c>
       <c r="C61" s="5" t="n">
         <v>158393.7515528016</v>
@@ -1973,16 +1973,16 @@
       </c>
       <c r="B62" s="3" t="n"/>
       <c r="C62" s="10" t="n">
-        <v>0.0249</v>
+        <v>0.032</v>
       </c>
       <c r="D62" s="10" t="n">
-        <v>0.0645</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="E62" s="10" t="n">
-        <v>0.0992</v>
+        <v>0.1068</v>
       </c>
       <c r="F62" s="10" t="n">
-        <v>0.0539</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="63">
@@ -2013,16 +2013,16 @@
       </c>
       <c r="B64" s="3" t="n"/>
       <c r="C64" s="11" t="n">
-        <v>0.2988</v>
+        <v>0.3840000000000001</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>0.258</v>
+        <v>0.2876</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>0.1984</v>
+        <v>0.2136</v>
       </c>
       <c r="F64" s="11" t="n">
-        <v>0.0539</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="65">
@@ -2032,7 +2032,7 @@
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr"/>
       <c r="F65" s="11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66"/>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="B70" s="8" t="n">
-        <v>0.008</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="71"/>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B73" s="5" t="n">
-        <v>141511.5760509521</v>
+        <v>143226.9680180177</v>
       </c>
       <c r="C73" s="5" t="n">
         <v>137916.3367187195</v>
@@ -2145,16 +2145,16 @@
       </c>
       <c r="B74" s="3" t="n"/>
       <c r="C74" s="10" t="n">
-        <v>0.0261</v>
+        <v>0.0385</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>0.0597</v>
+        <v>0.0726</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>0.0919</v>
+        <v>0.1051</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>0.067</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="75">
@@ -2185,16 +2185,16 @@
       </c>
       <c r="B76" s="3" t="n"/>
       <c r="C76" s="11" t="n">
-        <v>0.3132</v>
+        <v>0.462</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>0.2388</v>
+        <v>0.2904</v>
       </c>
       <c r="E76" s="11" t="n">
-        <v>0.1838</v>
+        <v>0.2102</v>
       </c>
       <c r="F76" s="11" t="n">
-        <v>0.067</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="77">
@@ -2204,7 +2204,7 @@
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr"/>
       <c r="F77" s="11" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="78"/>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>0.0074</v>
+        <v>0.009000000000000001</v>
       </c>
     </row>
     <row r="83"/>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="B85" s="5" t="n">
-        <v>121360.53814812</v>
+        <v>122359.6530606933</v>
       </c>
       <c r="C85" s="5" t="n">
         <v>118165.1860010438</v>
@@ -2317,16 +2317,16 @@
       </c>
       <c r="B86" s="3" t="n"/>
       <c r="C86" s="10" t="n">
-        <v>0.027</v>
+        <v>0.0355</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>0.05309999999999999</v>
+        <v>0.0617</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>0.07150000000000001</v>
+        <v>0.0803</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>0.0581</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="87">
@@ -2357,16 +2357,16 @@
       </c>
       <c r="B88" s="3" t="n"/>
       <c r="C88" s="11" t="n">
-        <v>0.3240000000000001</v>
+        <v>0.4259999999999999</v>
       </c>
       <c r="D88" s="11" t="n">
-        <v>0.2124</v>
+        <v>0.2468</v>
       </c>
       <c r="E88" s="11" t="n">
-        <v>0.143</v>
+        <v>0.1606</v>
       </c>
       <c r="F88" s="11" t="n">
-        <v>0.0581</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="89">
@@ -2376,7 +2376,7 @@
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr"/>
       <c r="F89" s="11" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
